--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>ConsecuenciaAtencionCodigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConsecuenciaAtencionCodigo}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionConsecuenciaAtencionCodigo}
 </t>
   </si>
   <si>
@@ -522,7 +522,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConsecuenciaAtencionCodigo</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionConsecuenciaAtencionCodigo</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1580,7 +1580,7 @@
     <t>Encounter.diagnosis</t>
   </si>
   <si>
-    <t>Diagnóstico de origen por cual se crea la interconsulta</t>
+    <t>El o los diagnósticos por cual se crea la solicitud de interconsulta</t>
   </si>
   <si>
     <t>The list of diagnosis relevant to this encounter.</t>
@@ -2342,7 +2342,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.76953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.76953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="644">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -685,9 +685,6 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -4542,7 +4539,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4807,46 +4804,46 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4864,21 +4861,21 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4904,14 +4901,14 @@
         <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4960,7 +4957,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4978,21 +4975,21 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5015,19 +5012,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5076,7 +5073,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5094,21 +5091,21 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5134,16 +5131,16 @@
         <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5192,7 +5189,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5210,21 +5207,21 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5250,16 +5247,16 @@
         <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5308,7 +5305,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5337,10 +5334,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5363,13 +5360,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5420,7 +5417,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5435,24 +5432,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5561,10 +5558,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5675,10 +5672,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5704,16 +5701,16 @@
         <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5741,28 +5738,28 @@
         <v>169</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5780,7 +5777,7 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5791,10 +5788,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5820,16 +5817,16 @@
         <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5854,31 +5851,31 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5896,21 +5893,21 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6019,10 +6016,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6133,10 +6130,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6249,10 +6246,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6361,10 +6358,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6475,10 +6472,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6591,10 +6588,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6705,10 +6702,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6734,7 +6731,7 @@
         <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>214</v>
@@ -6751,7 +6748,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6790,7 +6787,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6808,21 +6805,21 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6848,14 +6845,14 @@
         <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6904,7 +6901,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6922,21 +6919,21 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6959,19 +6956,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7020,7 +7017,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7038,21 +7035,21 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7078,16 +7075,16 @@
         <v>148</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7136,7 +7133,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7154,21 +7151,21 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7194,16 +7191,16 @@
         <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7216,43 +7213,43 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7270,21 +7267,21 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7310,13 +7307,13 @@
         <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7330,43 +7327,43 @@
         <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7384,21 +7381,21 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7421,13 +7418,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7478,7 +7475,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7496,21 +7493,21 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7533,16 +7530,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7592,7 +7589,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7610,21 +7607,21 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7650,13 +7647,13 @@
         <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7667,7 +7664,7 @@
         <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>80</v>
@@ -7685,11 +7682,11 @@
         <v>169</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7706,7 +7703,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7721,24 +7718,24 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7761,16 +7758,16 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7820,7 +7817,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7849,10 +7846,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7961,10 +7958,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8075,14 +8072,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8104,16 +8101,16 @@
         <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8162,7 +8159,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8191,10 +8188,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8220,10 +8217,10 @@
         <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8253,11 +8250,11 @@
         <v>169</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8274,7 +8271,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8303,10 +8300,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8329,13 +8326,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8386,7 +8383,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>88</v>
@@ -8415,10 +8412,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8444,10 +8441,10 @@
         <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8478,7 +8475,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8496,7 +8493,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>88</v>
@@ -8514,21 +8511,21 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8551,13 +8548,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8608,7 +8605,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8637,10 +8634,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8749,10 +8746,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8863,14 +8860,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8892,16 +8889,16 @@
         <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8950,7 +8947,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8979,10 +8976,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9008,10 +9005,10 @@
         <v>182</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9038,14 +9035,14 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9062,7 +9059,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>88</v>
@@ -9091,10 +9088,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9117,13 +9114,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9174,7 +9171,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -9203,10 +9200,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9232,13 +9229,13 @@
         <v>166</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9264,14 +9261,14 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9288,7 +9285,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9303,24 +9300,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9346,10 +9343,10 @@
         <v>166</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9376,14 +9373,14 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9400,7 +9397,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9415,7 +9412,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>152</v>
@@ -9424,15 +9421,15 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9458,10 +9455,10 @@
         <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9488,14 +9485,14 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9512,7 +9509,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9530,25 +9527,25 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9567,16 +9564,16 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9626,7 +9623,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9641,24 +9638,24 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9681,13 +9678,13 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9738,7 +9735,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9753,28 +9750,28 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9793,13 +9790,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9850,7 +9847,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9865,10 +9862,10 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9879,10 +9876,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9905,13 +9902,13 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9962,7 +9959,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9977,24 +9974,24 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10103,10 +10100,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10217,14 +10214,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10246,16 +10243,16 @@
         <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10304,7 +10301,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10333,10 +10330,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10362,13 +10359,13 @@
         <v>166</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10394,13 +10391,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10418,7 +10415,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10433,24 +10430,24 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>438</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10473,13 +10470,13 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10530,7 +10527,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10548,21 +10545,21 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10585,13 +10582,13 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10642,7 +10639,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10657,24 +10654,24 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10697,13 +10694,13 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10754,7 +10751,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10769,24 +10766,24 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10809,16 +10806,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10868,7 +10865,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10883,24 +10880,24 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11009,10 +11006,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11123,10 +11120,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11149,16 +11146,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11208,16 +11205,16 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI78" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
@@ -11226,21 +11223,21 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11263,69 +11260,69 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="R79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11333,7 +11330,7 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
@@ -11342,21 +11339,21 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11379,16 +11376,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11438,7 +11435,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11453,28 +11450,28 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11496,13 +11493,13 @@
         <v>166</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11531,11 +11528,11 @@
         <v>112</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>498</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11552,7 +11549,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11567,28 +11564,28 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11607,16 +11604,16 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="M82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11666,7 +11663,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11681,24 +11678,24 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11721,13 +11718,13 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11778,7 +11775,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11796,7 +11793,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11807,10 +11804,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11919,10 +11916,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12033,14 +12030,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12062,16 +12059,16 @@
         <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12120,7 +12117,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12149,14 +12146,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12175,16 +12172,16 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="N87" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12234,7 +12231,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>88</v>
@@ -12249,24 +12246,24 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12292,10 +12289,10 @@
         <v>166</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12325,11 +12322,11 @@
         <v>112</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12346,7 +12343,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12375,10 +12372,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12401,13 +12398,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12458,7 +12455,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12476,7 +12473,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12487,10 +12484,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12513,16 +12510,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12572,7 +12569,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12590,7 +12587,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12601,10 +12598,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12627,16 +12624,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12686,7 +12683,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12704,7 +12701,7 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12715,10 +12712,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12827,10 +12824,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12941,14 +12938,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12970,16 +12967,16 @@
         <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13028,7 +13025,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13057,10 +13054,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13083,13 +13080,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13140,7 +13137,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13158,21 +13155,21 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13195,13 +13192,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13252,7 +13249,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13270,7 +13267,7 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13281,10 +13278,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13310,10 +13307,10 @@
         <v>166</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13343,11 +13340,11 @@
         <v>112</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z97" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13364,7 +13361,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13382,21 +13379,21 @@
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>560</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13422,10 +13419,10 @@
         <v>166</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13452,14 +13449,14 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="Z98" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
       </c>
@@ -13476,7 +13473,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13500,15 +13497,15 @@
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13534,16 +13531,16 @@
         <v>166</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13568,14 +13565,14 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13592,7 +13589,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13610,21 +13607,21 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>575</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13650,10 +13647,10 @@
         <v>166</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13683,11 +13680,11 @@
         <v>112</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
       </c>
@@ -13704,7 +13701,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13722,21 +13719,21 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>582</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13762,10 +13759,10 @@
         <v>166</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13795,11 +13792,11 @@
         <v>112</v>
       </c>
       <c r="Y101" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="Z101" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="Z101" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
       </c>
@@ -13816,7 +13813,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13834,21 +13831,21 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>589</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13871,13 +13868,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13928,7 +13925,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13946,21 +13943,21 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>594</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13986,10 +13983,10 @@
         <v>166</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14016,14 +14013,14 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
       </c>
@@ -14040,7 +14037,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14058,21 +14055,21 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>601</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14095,16 +14092,16 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14154,7 +14151,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14172,7 +14169,7 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
@@ -14183,10 +14180,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14295,10 +14292,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14409,14 +14406,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14438,16 +14435,16 @@
         <v>133</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -14496,7 +14493,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14525,10 +14522,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14551,13 +14548,13 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14608,7 +14605,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>88</v>
@@ -14623,24 +14620,24 @@
         <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AL108" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM108" t="s" s="2">
+      <c r="AN108" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>616</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14666,13 +14663,13 @@
         <v>108</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14701,11 +14698,11 @@
         <v>169</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="Z109" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
       </c>
@@ -14722,7 +14719,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14740,7 +14737,7 @@
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>80</v>
@@ -14751,10 +14748,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14780,13 +14777,13 @@
         <v>166</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14812,14 +14809,14 @@
         <v>80</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>629</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
       </c>
@@ -14836,7 +14833,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14865,10 +14862,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14891,13 +14888,13 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14948,7 +14945,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14966,7 +14963,7 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
@@ -14977,10 +14974,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15003,13 +15000,13 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15060,7 +15057,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15075,24 +15072,24 @@
         <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>637</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15115,16 +15112,16 @@
         <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15174,7 +15171,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15189,10 +15186,10 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AL113" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="645">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -4539,7 +4542,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4804,7 +4807,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>80</v>
@@ -4843,7 +4846,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4861,21 +4864,21 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4901,14 +4904,14 @@
         <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4957,7 +4960,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4975,21 +4978,21 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5012,19 +5015,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5073,7 +5076,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5091,21 +5094,21 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5131,16 +5134,16 @@
         <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5189,7 +5192,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5207,21 +5210,21 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5247,16 +5250,16 @@
         <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5305,7 +5308,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5334,10 +5337,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5360,13 +5363,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5417,7 +5420,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5432,24 +5435,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5558,10 +5561,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5672,10 +5675,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5701,16 +5704,16 @@
         <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5738,10 +5741,10 @@
         <v>169</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5759,7 +5762,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5777,7 +5780,7 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5788,10 +5791,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5817,16 +5820,16 @@
         <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5851,13 +5854,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5875,7 +5878,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5893,21 +5896,21 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6016,10 +6019,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6130,10 +6133,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6246,10 +6249,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6358,10 +6361,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6472,10 +6475,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6588,10 +6591,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6702,10 +6705,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6731,7 +6734,7 @@
         <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>214</v>
@@ -6748,7 +6751,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6787,7 +6790,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6805,21 +6808,21 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6845,14 +6848,14 @@
         <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6901,7 +6904,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6919,21 +6922,21 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6956,19 +6959,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7017,7 +7020,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7035,21 +7038,21 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7075,16 +7078,16 @@
         <v>148</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7133,7 +7136,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7151,21 +7154,21 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7191,16 +7194,16 @@
         <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7213,7 +7216,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7249,7 +7252,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7267,21 +7270,21 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7307,13 +7310,13 @@
         <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7327,7 +7330,7 @@
         <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>80</v>
@@ -7363,7 +7366,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7381,21 +7384,21 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7418,13 +7421,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7475,7 +7478,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7493,21 +7496,21 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7530,16 +7533,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7589,7 +7592,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7607,21 +7610,21 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7647,13 +7650,13 @@
         <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7664,7 +7667,7 @@
         <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>80</v>
@@ -7682,10 +7685,10 @@
         <v>169</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7703,7 +7706,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7718,24 +7721,24 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7758,16 +7761,16 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7817,7 +7820,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7846,10 +7849,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7958,10 +7961,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8072,14 +8075,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8101,16 +8104,16 @@
         <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8159,7 +8162,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8188,10 +8191,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8217,10 +8220,10 @@
         <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8250,10 +8253,10 @@
         <v>169</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8271,7 +8274,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8300,10 +8303,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8326,13 +8329,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8383,7 +8386,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>88</v>
@@ -8412,10 +8415,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8441,10 +8444,10 @@
         <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8475,7 +8478,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8493,7 +8496,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>88</v>
@@ -8511,21 +8514,21 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8548,13 +8551,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8605,7 +8608,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8634,10 +8637,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8746,10 +8749,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8860,14 +8863,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8889,16 +8892,16 @@
         <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8947,7 +8950,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8976,10 +8979,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9005,10 +9008,10 @@
         <v>182</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9035,13 +9038,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9059,7 +9062,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>88</v>
@@ -9088,10 +9091,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9114,13 +9117,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9171,7 +9174,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -9200,10 +9203,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9229,13 +9232,13 @@
         <v>166</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9261,13 +9264,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9285,7 +9288,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9300,24 +9303,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9343,10 +9346,10 @@
         <v>166</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9373,13 +9376,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9397,7 +9400,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9412,7 +9415,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>152</v>
@@ -9421,15 +9424,15 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9455,10 +9458,10 @@
         <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9485,13 +9488,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9509,7 +9512,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9527,25 +9530,25 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9564,16 +9567,16 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9623,7 +9626,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9638,24 +9641,24 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9678,13 +9681,13 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9735,7 +9738,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9750,28 +9753,28 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9790,13 +9793,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9847,7 +9850,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9862,10 +9865,10 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9876,10 +9879,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9902,13 +9905,13 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9959,7 +9962,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9974,24 +9977,24 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10100,10 +10103,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10214,14 +10217,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10243,16 +10246,16 @@
         <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10301,7 +10304,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10330,10 +10333,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10359,13 +10362,13 @@
         <v>166</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10391,13 +10394,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10415,7 +10418,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10430,24 +10433,24 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10470,13 +10473,13 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10527,7 +10530,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10545,21 +10548,21 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10582,13 +10585,13 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10639,7 +10642,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10654,24 +10657,24 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10694,13 +10697,13 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10751,7 +10754,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10766,24 +10769,24 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10806,16 +10809,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10865,7 +10868,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10880,24 +10883,24 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11006,10 +11009,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11120,10 +11123,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11146,16 +11149,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11205,7 +11208,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11214,7 +11217,7 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
@@ -11223,21 +11226,21 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11260,23 +11263,23 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>80</v>
@@ -11321,7 +11324,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11330,7 +11333,7 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
@@ -11339,21 +11342,21 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11376,16 +11379,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11435,7 +11438,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11450,28 +11453,28 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11493,13 +11496,13 @@
         <v>166</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11528,10 +11531,10 @@
         <v>112</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11549,7 +11552,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11564,28 +11567,28 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11604,16 +11607,16 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11663,7 +11666,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11678,24 +11681,24 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11718,13 +11721,13 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11775,7 +11778,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11793,7 +11796,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11804,10 +11807,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11916,10 +11919,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12030,14 +12033,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12059,16 +12062,16 @@
         <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12117,7 +12120,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12146,14 +12149,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12172,16 +12175,16 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12231,7 +12234,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>88</v>
@@ -12246,24 +12249,24 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12289,10 +12292,10 @@
         <v>166</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12322,10 +12325,10 @@
         <v>112</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12343,7 +12346,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12372,10 +12375,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12398,13 +12401,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12455,7 +12458,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12473,7 +12476,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12484,10 +12487,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12510,16 +12513,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12569,7 +12572,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12587,7 +12590,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12598,10 +12601,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12624,16 +12627,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12683,7 +12686,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12701,7 +12704,7 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12712,10 +12715,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12824,10 +12827,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12938,14 +12941,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12967,16 +12970,16 @@
         <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13025,7 +13028,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13054,10 +13057,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13080,13 +13083,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13137,7 +13140,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13155,21 +13158,21 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13192,13 +13195,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13249,7 +13252,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13267,7 +13270,7 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13278,10 +13281,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13307,10 +13310,10 @@
         <v>166</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13340,10 +13343,10 @@
         <v>112</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
@@ -13361,7 +13364,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13379,21 +13382,21 @@
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13419,10 +13422,10 @@
         <v>166</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13449,13 +13452,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -13473,7 +13476,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13497,15 +13500,15 @@
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13531,16 +13534,16 @@
         <v>166</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13565,13 +13568,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -13589,7 +13592,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13607,21 +13610,21 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13647,10 +13650,10 @@
         <v>166</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13680,10 +13683,10 @@
         <v>112</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -13701,7 +13704,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13719,21 +13722,21 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13759,10 +13762,10 @@
         <v>166</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13792,10 +13795,10 @@
         <v>112</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -13813,7 +13816,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13831,21 +13834,21 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13868,13 +13871,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13925,7 +13928,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13943,21 +13946,21 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13983,10 +13986,10 @@
         <v>166</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14013,13 +14016,13 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -14037,7 +14040,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14055,21 +14058,21 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14092,16 +14095,16 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14151,7 +14154,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14169,7 +14172,7 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
@@ -14180,10 +14183,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14292,10 +14295,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14406,14 +14409,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14435,16 +14438,16 @@
         <v>133</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>179</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -14493,7 +14496,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14522,10 +14525,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14548,13 +14551,13 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14605,7 +14608,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>88</v>
@@ -14620,24 +14623,24 @@
         <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14663,13 +14666,13 @@
         <v>108</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14698,10 +14701,10 @@
         <v>169</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -14719,7 +14722,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14737,7 +14740,7 @@
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>80</v>
@@ -14748,10 +14751,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14777,13 +14780,13 @@
         <v>166</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14809,13 +14812,13 @@
         <v>80</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
@@ -14833,7 +14836,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14862,10 +14865,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14888,13 +14891,13 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14945,7 +14948,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14963,7 +14966,7 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
@@ -14974,10 +14977,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15000,13 +15003,13 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15057,7 +15060,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15072,24 +15075,24 @@
         <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15112,16 +15115,16 @@
         <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15171,7 +15174,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15186,10 +15189,10 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -858,7 +858,7 @@
     <t>Encounter.identifier.type</t>
   </si>
   <si>
-    <t>Tipo de identificador</t>
+    <t>Description of identifier</t>
   </si>
   <si>
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -883,45 +883,6 @@
   </si>
   <si>
     <t>CX.5</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>El valor DEBE ser FILL</t>
-  </si>
-  <si>
-    <t>FILL</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.type.text</t>
   </si>
   <si>
     <t>Encounter.identifier.system</t>
@@ -2323,7 +2284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5802,13 +5763,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5930,19 +5891,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5954,7 +5919,7 @@
         <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>80</v>
@@ -5990,7 +5955,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6002,59 +5967,59 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6068,7 +6033,7 @@
         <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>80</v>
@@ -6092,51 +6057,51 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6147,7 +6112,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6159,20 +6124,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6220,13 +6181,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -6238,21 +6199,21 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6272,18 +6233,20 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>149</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6332,7 +6295,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6344,59 +6307,59 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6407,7 +6370,7 @@
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6422,63 +6385,63 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6489,7 +6452,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6498,23 +6461,21 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6562,13 +6523,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6580,21 +6541,21 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6614,20 +6575,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6676,7 +6635,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6688,38 +6647,38 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6728,21 +6687,21 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6751,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6790,72 +6749,74 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6904,39 +6865,39 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6944,7 +6905,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6956,23 +6917,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6996,13 +6953,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7020,10 +6977,10 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>88</v>
@@ -7038,21 +6995,21 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7060,7 +7017,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -7072,23 +7029,19 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7136,10 +7089,10 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>88</v>
@@ -7154,21 +7107,21 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7176,7 +7129,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -7191,20 +7144,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7216,7 +7165,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7228,13 +7177,11 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7252,10 +7199,10 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>88</v>
@@ -7270,21 +7217,21 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>302</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7292,32 +7239,30 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7330,7 +7275,7 @@
         <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>80</v>
@@ -7366,13 +7311,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7384,21 +7329,21 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7418,16 +7363,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7478,7 +7423,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7490,38 +7435,38 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7530,19 +7475,19 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>320</v>
+        <v>177</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>321</v>
+        <v>178</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7592,53 +7537,53 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>156</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>89</v>
@@ -7647,18 +7592,20 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7667,7 +7614,7 @@
         <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>80</v>
@@ -7682,13 +7629,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7706,39 +7653,39 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7746,10 +7693,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7761,17 +7708,15 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>182</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7796,13 +7741,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7820,13 +7765,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7849,10 +7794,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7860,7 +7805,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>88</v>
@@ -7875,13 +7820,13 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>150</v>
+        <v>361</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7932,10 +7877,10 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>88</v>
@@ -7944,7 +7889,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7961,14 +7906,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7984,19 +7929,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>179</v>
+        <v>365</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8022,13 +7967,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8046,7 +7991,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8058,63 +8003,59 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>152</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8138,13 +8079,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8162,39 +8103,39 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8202,7 +8143,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -8217,13 +8158,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8250,13 +8191,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8274,10 +8215,10 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>88</v>
@@ -8292,25 +8233,25 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8320,24 +8261,26 @@
         <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8386,10 +8329,10 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>88</v>
@@ -8401,24 +8344,24 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>152</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8426,10 +8369,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8441,13 +8384,13 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>182</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8474,11 +8417,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8496,13 +8441,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8511,28 +8456,28 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8551,13 +8496,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8608,7 +8553,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8623,10 +8568,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8637,10 +8582,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8651,7 +8596,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8660,16 +8605,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>149</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>150</v>
+        <v>411</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8720,50 +8665,50 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>151</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>152</v>
+        <v>413</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8775,17 +8720,15 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8834,19 +8777,19 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -8863,14 +8806,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8883,26 +8826,24 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>177</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>347</v>
+        <v>178</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="O58" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8950,7 +8891,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>348</v>
+        <v>156</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8968,7 +8909,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8979,42 +8920,46 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9038,13 +8983,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9062,25 +9007,25 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -9091,10 +9036,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9102,10 +9047,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9114,18 +9059,20 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9150,13 +9097,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9174,13 +9121,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -9189,24 +9136,24 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>424</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9217,7 +9164,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9226,20 +9173,18 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9264,13 +9209,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9288,13 +9233,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9303,24 +9248,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>384</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9343,13 +9288,13 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>166</v>
+        <v>432</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9376,13 +9321,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9400,7 +9345,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9415,24 +9360,24 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>436</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>390</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9443,7 +9388,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9452,16 +9397,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>166</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9488,13 +9433,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9512,13 +9457,13 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
@@ -9527,28 +9472,28 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>397</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9564,19 +9509,19 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>400</v>
+        <v>299</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9626,7 +9571,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9641,24 +9586,24 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>407</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9669,7 +9614,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9678,16 +9623,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>409</v>
+        <v>148</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>411</v>
+        <v>150</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9738,43 +9683,43 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>151</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>416</v>
+        <v>176</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9793,15 +9738,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>417</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>418</v>
+        <v>177</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9838,19 +9785,19 @@
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>415</v>
+        <v>156</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9862,13 +9809,13 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>421</v>
+        <v>152</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9879,10 +9826,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9890,13 +9837,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -9905,15 +9852,17 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>338</v>
+        <v>456</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9962,39 +9911,39 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>427</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10002,35 +9951,39 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>148</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>149</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10074,7 +10027,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>151</v>
+        <v>469</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10083,41 +10036,41 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>152</v>
+        <v>470</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10129,16 +10082,16 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>473</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>177</v>
+        <v>474</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>178</v>
+        <v>475</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>179</v>
+        <v>476</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10188,43 +10141,43 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>156</v>
+        <v>472</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>152</v>
+        <v>477</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>345</v>
+        <v>480</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10237,26 +10190,24 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>347</v>
+        <v>482</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10280,13 +10231,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10304,7 +10255,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>348</v>
+        <v>479</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10316,31 +10267,31 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>131</v>
+        <v>487</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10359,16 +10310,16 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>166</v>
+        <v>491</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10394,13 +10345,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10418,7 +10369,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10433,24 +10384,24 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>438</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10458,10 +10409,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10470,16 +10421,16 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10530,13 +10481,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10548,21 +10499,21 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10582,16 +10533,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>446</v>
+        <v>149</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>447</v>
+        <v>150</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10642,7 +10593,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>151</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10654,31 +10605,31 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>449</v>
+        <v>152</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10694,18 +10645,20 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>453</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>454</v>
+        <v>177</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10754,7 +10707,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>452</v>
+        <v>156</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10766,61 +10719,63 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>456</v>
+        <v>152</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I75" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>460</v>
+        <v>334</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10868,47 +10823,47 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>463</v>
+        <v>131</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10920,18 +10875,20 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>148</v>
+        <v>502</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>149</v>
+        <v>503</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10980,10 +10937,10 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>88</v>
@@ -10992,38 +10949,38 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11035,17 +10992,15 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>177</v>
+        <v>509</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11070,43 +11025,43 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>156</v>
+        <v>508</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11123,10 +11078,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11134,32 +11089,30 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11208,7 +11161,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11217,7 +11170,7 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
@@ -11226,21 +11179,21 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11248,39 +11201,37 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q79" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11324,16 +11275,16 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
@@ -11342,21 +11293,21 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11379,16 +11330,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>486</v>
+        <v>325</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11438,7 +11389,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11453,35 +11404,35 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11490,20 +11441,18 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>494</v>
+        <v>149</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11528,13 +11477,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11552,43 +11501,43 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>492</v>
+        <v>151</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>500</v>
+        <v>152</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>493</v>
+        <v>176</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11604,19 +11553,19 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>504</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>505</v>
+        <v>177</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>495</v>
+        <v>178</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>496</v>
+        <v>179</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11666,7 +11615,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>503</v>
+        <v>156</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11678,35 +11627,35 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>500</v>
+        <v>152</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -11715,22 +11664,26 @@
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
+        <v>333</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11778,7 +11731,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>506</v>
+        <v>335</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11790,13 +11743,13 @@
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>509</v>
+        <v>131</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11807,10 +11760,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11833,13 +11786,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>149</v>
+        <v>533</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>150</v>
+        <v>534</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11890,7 +11843,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>151</v>
+        <v>532</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11902,38 +11855,38 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -11945,17 +11898,15 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>133</v>
+        <v>537</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>177</v>
+        <v>538</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12004,25 +11955,25 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>156</v>
+        <v>536</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>152</v>
+        <v>540</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12033,46 +11984,42 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>346</v>
+        <v>542</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12096,13 +12043,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -12120,47 +12067,47 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>348</v>
+        <v>541</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>131</v>
+        <v>546</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12172,20 +12119,18 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>515</v>
+        <v>166</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12210,13 +12155,13 @@
         <v>80</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -12234,10 +12179,10 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>88</v>
@@ -12249,24 +12194,24 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>519</v>
+        <v>152</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>520</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12277,7 +12222,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12292,13 +12237,17 @@
         <v>166</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12322,13 +12271,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>112</v>
+        <v>366</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12346,13 +12295,13 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
@@ -12364,21 +12313,21 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>152</v>
+        <v>561</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12389,7 +12338,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12401,13 +12350,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>527</v>
+        <v>166</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12434,13 +12383,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -12458,13 +12407,13 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
@@ -12476,21 +12425,21 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12513,17 +12462,15 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>532</v>
+        <v>166</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12548,13 +12495,13 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -12572,7 +12519,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12590,21 +12537,21 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>80</v>
+        <v>576</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12627,17 +12574,15 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12686,7 +12631,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12704,21 +12649,21 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12741,13 +12686,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>149</v>
+        <v>583</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>150</v>
+        <v>584</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12774,13 +12719,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>586</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -12798,7 +12743,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>151</v>
+        <v>582</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12810,31 +12755,31 @@
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>588</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12853,16 +12798,16 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>177</v>
+        <v>590</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>178</v>
+        <v>591</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>179</v>
+        <v>592</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12912,7 +12857,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>156</v>
+        <v>589</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12924,13 +12869,13 @@
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>152</v>
+        <v>593</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12941,46 +12886,42 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13028,25 +12969,25 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -13057,21 +12998,21 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13083,15 +13024,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>546</v>
+        <v>177</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13140,71 +13083,75 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>545</v>
+        <v>156</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>550</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>551</v>
+        <v>333</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13252,25 +13199,25 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>549</v>
+        <v>335</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>553</v>
+        <v>131</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13281,10 +13228,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13292,7 +13239,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>88</v>
@@ -13307,13 +13254,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>166</v>
+        <v>598</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13340,13 +13287,13 @@
         <v>80</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
@@ -13364,10 +13311,10 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>88</v>
@@ -13379,24 +13326,24 @@
         <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>80</v>
+        <v>601</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>559</v>
+        <v>436</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>80</v>
+        <v>602</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>560</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13419,15 +13366,17 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13452,13 +13401,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -13476,7 +13425,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13494,21 +13443,21 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>152</v>
+        <v>610</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>566</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13519,7 +13468,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -13534,17 +13483,15 @@
         <v>166</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13568,13 +13515,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -13592,13 +13539,13 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
@@ -13610,21 +13557,21 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>574</v>
+        <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13635,7 +13582,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
@@ -13647,13 +13594,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>577</v>
+        <v>618</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13680,13 +13627,13 @@
         <v>80</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -13704,13 +13651,13 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
@@ -13722,21 +13669,21 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>581</v>
+        <v>429</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>582</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13747,7 +13694,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
@@ -13759,13 +13706,13 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13792,13 +13739,13 @@
         <v>80</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -13816,13 +13763,13 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>80</v>
@@ -13831,24 +13778,24 @@
         <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>589</v>
+        <v>624</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13871,15 +13818,17 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -13928,7 +13877,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13943,1266 +13892,20 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN113" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN113">
+  <autoFilter ref="A1:AN102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15212,7 +13915,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
